--- a/FALCON/ExampleDatasets/PDGF_validation.xlsx
+++ b/FALCON/ExampleDatasets/PDGF_validation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panuwat.trairatphisa\Desktop\FalconV1p2_PT\ExampleDatasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.lucarelli\Desktop\FALCON-annotation\FALCON-annotation\FALCON\ExampleDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>PDGFL</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t>bPKC</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>dM-[W]</t>
+  </si>
+  <si>
+    <t>dP[U]</t>
+  </si>
+  <si>
+    <t>dP[W]</t>
+  </si>
+  <si>
+    <t>dM[U]</t>
   </si>
 </sst>
 </file>
@@ -385,59 +400,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,22 +468,25 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -477,25 +500,28 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -506,22 +532,25 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -533,6 +562,9 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
